--- a/VocabularyHelper/vocab.xlsx
+++ b/VocabularyHelper/vocab.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\VocabularHelper\VocabularHelper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\VocabularyHelper\VocabularyHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DC4805-E585-4BF1-9C4A-E47202E5B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814393B1-79B3-4844-9045-42632CA70907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03566769-B04F-43A9-B8FA-60942EE63893}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nouns" sheetId="1" r:id="rId1"/>
+    <sheet name="Verbs" sheetId="2" r:id="rId2"/>
+    <sheet name="Conjugations" sheetId="3" r:id="rId3"/>
+    <sheet name="adjectives" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="274">
   <si>
     <t>English</t>
   </si>
@@ -50,67 +53,814 @@
     <t>f</t>
   </si>
   <si>
-    <t>casa1</t>
-  </si>
-  <si>
-    <t>house1</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>casa2</t>
-  </si>
-  <si>
-    <t>house2</t>
-  </si>
-  <si>
-    <t>casa3</t>
-  </si>
-  <si>
-    <t>casa4</t>
-  </si>
-  <si>
-    <t>casa5</t>
-  </si>
-  <si>
-    <t>casa6</t>
-  </si>
-  <si>
-    <t>casa7</t>
-  </si>
-  <si>
-    <t>casa8</t>
-  </si>
-  <si>
-    <t>casa9</t>
-  </si>
-  <si>
-    <t>casa10</t>
-  </si>
-  <si>
-    <t>house3</t>
-  </si>
-  <si>
-    <t>house4</t>
-  </si>
-  <si>
-    <t>house5</t>
-  </si>
-  <si>
-    <t>house6</t>
-  </si>
-  <si>
-    <t>house7</t>
-  </si>
-  <si>
-    <t>house8</t>
-  </si>
-  <si>
-    <t>house9</t>
-  </si>
-  <si>
-    <t>house10</t>
+    <t>hablar</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>comer</t>
+  </si>
+  <si>
+    <t>vivir</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>Verb</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>el/ela</t>
+  </si>
+  <si>
+    <t>nostors/nostras</t>
+  </si>
+  <si>
+    <t>vosotros/vosotras</t>
+  </si>
+  <si>
+    <t>ellos/ellas</t>
+  </si>
+  <si>
+    <t>prensent participal</t>
+  </si>
+  <si>
+    <t>hablo</t>
+  </si>
+  <si>
+    <t>hablas</t>
+  </si>
+  <si>
+    <t>habla</t>
+  </si>
+  <si>
+    <t>hablamos</t>
+  </si>
+  <si>
+    <t>hablais</t>
+  </si>
+  <si>
+    <t>hablan</t>
+  </si>
+  <si>
+    <t>hablando</t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>comemos</t>
+  </si>
+  <si>
+    <t>comeis</t>
+  </si>
+  <si>
+    <t>comen</t>
+  </si>
+  <si>
+    <t>comiendo</t>
+  </si>
+  <si>
+    <t>vivo</t>
+  </si>
+  <si>
+    <t>vives</t>
+  </si>
+  <si>
+    <t>vive</t>
+  </si>
+  <si>
+    <t>vivimos</t>
+  </si>
+  <si>
+    <t>vivis</t>
+  </si>
+  <si>
+    <t>viven</t>
+  </si>
+  <si>
+    <t>viviendo</t>
+  </si>
+  <si>
+    <t>comprar</t>
+  </si>
+  <si>
+    <t>beber</t>
+  </si>
+  <si>
+    <t>escribir</t>
+  </si>
+  <si>
+    <t>estudiar</t>
+  </si>
+  <si>
+    <t>aprender</t>
+  </si>
+  <si>
+    <t>subir</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>go up</t>
+  </si>
+  <si>
+    <t>casa</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>hombre</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>libro</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>libros</t>
+  </si>
+  <si>
+    <t>casas</t>
+  </si>
+  <si>
+    <t>plural</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>hambre</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>mano</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>lapiz</t>
+  </si>
+  <si>
+    <t>camion</t>
+  </si>
+  <si>
+    <t>lorry</t>
+  </si>
+  <si>
+    <t>pencil</t>
+  </si>
+  <si>
+    <t>policia</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>idioma</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>mapa</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>hombres</t>
+  </si>
+  <si>
+    <t>mujer</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>leche</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>mujeres</t>
+  </si>
+  <si>
+    <t>lapices</t>
+  </si>
+  <si>
+    <t>luz</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>luces</t>
+  </si>
+  <si>
+    <t>comiones</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>flor</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t>calles</t>
+  </si>
+  <si>
+    <t>jardin</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>jardines</t>
+  </si>
+  <si>
+    <t>coche</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>coches</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>cuidad</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>cuidades</t>
+  </si>
+  <si>
+    <t>ley</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>leyes</t>
+  </si>
+  <si>
+    <t>capitales</t>
+  </si>
+  <si>
+    <t>vino</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>mesas</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>cerveza</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>cervezas</t>
+  </si>
+  <si>
+    <t>pez</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>arboles</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>arbole</t>
+  </si>
+  <si>
+    <t>padre</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>padres</t>
+  </si>
+  <si>
+    <t>madre</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>madres</t>
+  </si>
+  <si>
+    <t>estaciones</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>estacion</t>
+  </si>
+  <si>
+    <t>billete</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>billetes</t>
+  </si>
+  <si>
+    <t>tren</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>trenes</t>
+  </si>
+  <si>
+    <t>tener</t>
+  </si>
+  <si>
+    <t>tengo</t>
+  </si>
+  <si>
+    <t>tienes</t>
+  </si>
+  <si>
+    <t>tiene</t>
+  </si>
+  <si>
+    <t>tenemos</t>
+  </si>
+  <si>
+    <t>teneis</t>
+  </si>
+  <si>
+    <t>tienen</t>
+  </si>
+  <si>
+    <t>dinero</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>pluma</t>
+  </si>
+  <si>
+    <t>plumas</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>cafes</t>
+  </si>
+  <si>
+    <t>trabajar</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>salir</t>
+  </si>
+  <si>
+    <t>go out</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>hijo</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>hijos</t>
+  </si>
+  <si>
+    <t>hija</t>
+  </si>
+  <si>
+    <t>daugher</t>
+  </si>
+  <si>
+    <t>hijas</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>paraguas</t>
+  </si>
+  <si>
+    <t>periodico</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>revista</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>estar</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>eres</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>somos</t>
+  </si>
+  <si>
+    <t>sois</t>
+  </si>
+  <si>
+    <t>estoy</t>
+  </si>
+  <si>
+    <t>esta</t>
+  </si>
+  <si>
+    <t>estas</t>
+  </si>
+  <si>
+    <t>estamos</t>
+  </si>
+  <si>
+    <t>estais</t>
+  </si>
+  <si>
+    <t>estan</t>
+  </si>
+  <si>
+    <t>reloj</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>oro</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>ladron</t>
+  </si>
+  <si>
+    <t>theif</t>
+  </si>
+  <si>
+    <t>salon</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>cocina</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>autobus</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>colina</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>fumar</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>man~ana</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>playa</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>iglesia</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>iglesias</t>
+  </si>
+  <si>
+    <t>nin~o</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>nin~os</t>
+  </si>
+  <si>
+    <t>nin~a</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>nin~as</t>
+  </si>
+  <si>
+    <t>silla</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>sillas</t>
+  </si>
+  <si>
+    <t>ascensor</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>uva</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>uvas</t>
+  </si>
+  <si>
+    <t>maleta</t>
+  </si>
+  <si>
+    <t>suitcase</t>
+  </si>
+  <si>
+    <t>galleta</t>
+  </si>
+  <si>
+    <t>buiscuit</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>abrigo</t>
+  </si>
+  <si>
+    <t>coat</t>
+  </si>
+  <si>
+    <t>zapato</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>zapatos</t>
+  </si>
+  <si>
+    <t>habitacion</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>compraro</t>
+  </si>
+  <si>
+    <t>compraras</t>
+  </si>
+  <si>
+    <t>compra</t>
+  </si>
+  <si>
+    <t>bebe</t>
+  </si>
+  <si>
+    <t>compramos</t>
+  </si>
+  <si>
+    <t>comprais</t>
+  </si>
+  <si>
+    <t>compran</t>
+  </si>
+  <si>
+    <t>bebo</t>
+  </si>
+  <si>
+    <t>subo</t>
+  </si>
+  <si>
+    <t>bebes</t>
+  </si>
+  <si>
+    <t>subis</t>
+  </si>
+  <si>
+    <t>bebemos</t>
+  </si>
+  <si>
+    <t>bebeis</t>
+  </si>
+  <si>
+    <t>beben</t>
+  </si>
+  <si>
+    <t>escribo</t>
+  </si>
+  <si>
+    <t>estudio</t>
+  </si>
+  <si>
+    <t>aprendo</t>
+  </si>
+  <si>
+    <t>escribes</t>
+  </si>
+  <si>
+    <t>escribe</t>
+  </si>
+  <si>
+    <t>escribimos</t>
+  </si>
+  <si>
+    <t>aprendemos</t>
+  </si>
+  <si>
+    <t>subimos</t>
+  </si>
+  <si>
+    <t>escribis</t>
+  </si>
+  <si>
+    <t>estudias</t>
+  </si>
+  <si>
+    <t>escriben</t>
+  </si>
+  <si>
+    <t>estudia</t>
+  </si>
+  <si>
+    <t>estudiamo</t>
+  </si>
+  <si>
+    <t>estudiais</t>
+  </si>
+  <si>
+    <t>estudian</t>
+  </si>
+  <si>
+    <t>subes</t>
+  </si>
+  <si>
+    <t>sube</t>
+  </si>
+  <si>
+    <t>submen</t>
+  </si>
+  <si>
+    <t>aprende</t>
+  </si>
+  <si>
+    <t>aprendes</t>
+  </si>
+  <si>
+    <t>aprendeis</t>
+  </si>
+  <si>
+    <t>aprenden</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>agrio</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>agria</t>
   </si>
 </sst>
 </file>
@@ -488,137 +1238,1305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D050802-60A8-46F6-B7A7-54F2C6A8EA64}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEB5E4-DD6B-4230-AA00-91AF0C93BFE3}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08EAC37-50B0-474B-9FEB-03150F3EF678}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638D09A6-052D-4E8D-AECC-01EA00A57F7C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>